--- a/data/COVID19-Korea-2020-03-16.xlsx
+++ b/data/COVID19-Korea-2020-03-16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swp2/Documents/Math/Research/Korea-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C0EB7-72B1-924D-AF30-EF6F860D4157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B7685-DEA3-1D4D-AF42-2B69FA6D3B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="34">
   <si>
     <t>date_report</t>
   </si>
@@ -480,21 +480,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U361"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="6" max="6" width="14.5" hidden="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -510,11 +507,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -530,9 +524,8 @@
       <c r="E2" s="2">
         <v>43850</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -548,9 +541,8 @@
       <c r="E3" s="2">
         <v>43854</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -566,9 +558,8 @@
       <c r="E4" s="2">
         <v>43856</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -584,9 +575,8 @@
       <c r="E5" s="2">
         <v>43857</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -602,9 +592,8 @@
       <c r="E6" s="2">
         <v>43860</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -617,9 +606,8 @@
       <c r="E7" s="2">
         <v>43860</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -635,9 +623,8 @@
       <c r="E8" s="2">
         <v>43860</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -653,9 +640,8 @@
       <c r="E9" s="2">
         <v>43861</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -671,9 +657,8 @@
       <c r="E10" s="2">
         <v>43861</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -689,9 +674,8 @@
       <c r="E11" s="2">
         <v>43861</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -707,9 +691,8 @@
       <c r="E12" s="2">
         <v>43861</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -725,9 +708,8 @@
       <c r="E13" s="2">
         <v>43862</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -740,9 +722,8 @@
       <c r="E14" s="2">
         <v>43863</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -758,9 +739,8 @@
       <c r="E15" s="2">
         <v>43863</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -776,9 +756,8 @@
       <c r="E16" s="2">
         <v>43863</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -794,9 +773,8 @@
       <c r="E17" s="2">
         <v>43865</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -809,9 +787,8 @@
       <c r="E18" s="2">
         <v>43866</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -824,9 +801,8 @@
       <c r="E19" s="2">
         <v>43866</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -839,9 +815,8 @@
       <c r="E20" s="2">
         <v>43866</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -854,9 +829,8 @@
       <c r="E21" s="2">
         <v>43866</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -869,9 +843,8 @@
       <c r="E22" s="2">
         <v>43866</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -887,9 +860,8 @@
       <c r="E23" s="2">
         <v>43867</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -905,9 +877,8 @@
       <c r="E24" s="2">
         <v>43867</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -920,9 +891,8 @@
       <c r="E25" s="2">
         <v>43867</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -938,9 +908,8 @@
       <c r="E26" s="2">
         <v>43870</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -956,9 +925,8 @@
       <c r="E27" s="2">
         <v>43870</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -974,9 +942,8 @@
       <c r="E28" s="2">
         <v>43870</v>
       </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -992,9 +959,8 @@
       <c r="E29" s="2">
         <v>43871</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1010,9 +976,8 @@
       <c r="E30" s="2">
         <v>43877</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1028,9 +993,8 @@
       <c r="E31" s="2">
         <v>43877</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1046,9 +1010,8 @@
       <c r="E32" s="2">
         <v>43879</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1061,9 +1024,8 @@
       <c r="E33" s="2">
         <v>43879</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1079,9 +1041,8 @@
       <c r="E34" s="2">
         <v>43880</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1094,9 +1055,8 @@
       <c r="E35" s="2">
         <v>43880</v>
       </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1109,9 +1069,8 @@
       <c r="E36" s="2">
         <v>43880</v>
       </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1124,9 +1083,8 @@
       <c r="E37" s="2">
         <v>43880</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1139,9 +1097,8 @@
       <c r="E38" s="2">
         <v>43880</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1154,9 +1111,8 @@
       <c r="E39" s="2">
         <v>43880</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1169,9 +1125,8 @@
       <c r="E40" s="2">
         <v>43880</v>
       </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1187,9 +1142,8 @@
       <c r="E41" s="2">
         <v>43880</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1202,9 +1156,8 @@
       <c r="E42" s="2">
         <v>43880</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1217,9 +1170,8 @@
       <c r="E43" s="2">
         <v>43880</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1232,9 +1184,8 @@
       <c r="E44" s="2">
         <v>43880</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1247,9 +1198,8 @@
       <c r="E45" s="2">
         <v>43880</v>
       </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1262,9 +1212,8 @@
       <c r="E46" s="2">
         <v>43880</v>
       </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1277,9 +1226,8 @@
       <c r="E47" s="2">
         <v>43880</v>
       </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1292,9 +1240,8 @@
       <c r="E48" s="2">
         <v>43880</v>
       </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1307,9 +1254,8 @@
       <c r="E49" s="2">
         <v>43880</v>
       </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1322,9 +1268,8 @@
       <c r="E50" s="2">
         <v>43880</v>
       </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1337,9 +1282,8 @@
       <c r="E51" s="2">
         <v>43880</v>
       </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1352,9 +1296,8 @@
       <c r="E52" s="2">
         <v>43880</v>
       </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1367,9 +1310,8 @@
       <c r="E53" s="2">
         <v>43880</v>
       </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1382,9 +1324,8 @@
       <c r="E54" s="2">
         <v>43880</v>
       </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1397,9 +1338,8 @@
       <c r="E55" s="2">
         <v>43880</v>
       </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1412,9 +1352,8 @@
       <c r="E56" s="2">
         <v>43880</v>
       </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1430,9 +1369,8 @@
       <c r="E57" s="2">
         <v>43880</v>
       </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1445,9 +1383,8 @@
       <c r="E58" s="2">
         <v>43880</v>
       </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1460,9 +1397,8 @@
       <c r="E59" s="2">
         <v>43880</v>
       </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <f t="shared" ref="A60:A83" si="0">A59+1</f>
         <v>59</v>
@@ -1476,9 +1412,8 @@
       <c r="E60" s="2">
         <v>43880</v>
       </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1492,9 +1427,8 @@
       <c r="E61" s="2">
         <v>43880</v>
       </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1508,9 +1442,8 @@
       <c r="E62" s="2">
         <v>43880</v>
       </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1524,9 +1457,8 @@
       <c r="E63" s="2">
         <v>43880</v>
       </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1540,9 +1472,8 @@
       <c r="E64" s="2">
         <v>43880</v>
       </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1556,9 +1487,8 @@
       <c r="E65" s="2">
         <v>43880</v>
       </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1572,9 +1502,8 @@
       <c r="E66" s="2">
         <v>43880</v>
       </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1588,9 +1517,8 @@
       <c r="E67" s="2">
         <v>43880</v>
       </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1604,9 +1532,8 @@
       <c r="E68" s="2">
         <v>43881</v>
       </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1620,9 +1547,8 @@
       <c r="E69" s="2">
         <v>43881</v>
       </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="7">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -1636,9 +1562,8 @@
       <c r="E70" s="2">
         <v>43881</v>
       </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1652,9 +1577,8 @@
       <c r="E71" s="2">
         <v>43881</v>
       </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -1668,9 +1592,8 @@
       <c r="E72" s="2">
         <v>43881</v>
       </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -1684,9 +1607,8 @@
       <c r="E73" s="2">
         <v>43881</v>
       </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -1700,9 +1622,8 @@
       <c r="E74" s="2">
         <v>43881</v>
       </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -1716,9 +1637,8 @@
       <c r="E75" s="2">
         <v>43881</v>
       </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -1732,9 +1652,8 @@
       <c r="E76" s="2">
         <v>43881</v>
       </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -1748,9 +1667,8 @@
       <c r="E77" s="2">
         <v>43881</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="7">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -1764,9 +1682,8 @@
       <c r="E78" s="2">
         <v>43881</v>
       </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -1780,9 +1697,8 @@
       <c r="E79" s="2">
         <v>43881</v>
       </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="7">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -1796,9 +1712,8 @@
       <c r="E80" s="2">
         <v>43881</v>
       </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1812,9 +1727,8 @@
       <c r="E81" s="2">
         <v>43881</v>
       </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="7">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -1828,9 +1742,8 @@
       <c r="E82" s="2">
         <v>43881</v>
       </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="7">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -1844,9 +1757,8 @@
       <c r="E83" s="2">
         <v>43881</v>
       </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1859,9 +1771,8 @@
       <c r="E84" s="2">
         <v>43881</v>
       </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="7">
         <f t="shared" ref="A85:A91" si="1">A84+1</f>
         <v>84</v>
@@ -1870,9 +1781,8 @@
         <v>6</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1881,9 +1791,8 @@
         <v>6</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="7">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -1892,9 +1801,8 @@
         <v>31</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="7">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -1903,9 +1811,8 @@
         <v>6</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="7">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -1914,9 +1821,8 @@
         <v>6</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -1925,9 +1831,8 @@
         <v>6</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -1936,9 +1841,8 @@
         <v>6</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>107</v>
       </c>
@@ -1949,9 +1853,8 @@
         <v>31</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="7">
         <f t="shared" ref="A93:A95" si="2">A92+1</f>
         <v>108</v>
@@ -1960,9 +1863,8 @@
         <v>6</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="7">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -1971,9 +1873,8 @@
         <v>31</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="7">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -1982,9 +1883,8 @@
         <v>6</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -1997,9 +1897,8 @@
       <c r="E96" s="2">
         <v>43881</v>
       </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>112</v>
       </c>
@@ -2012,9 +1911,8 @@
       <c r="E97" s="2">
         <v>43881</v>
       </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>114</v>
       </c>
@@ -2022,9 +1920,8 @@
         <v>31</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="7">
         <f t="shared" ref="A99:A104" si="3">A98+1</f>
         <v>115</v>
@@ -2033,9 +1930,8 @@
         <v>6</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -2044,9 +1940,8 @@
         <v>6</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -2055,9 +1950,8 @@
         <v>6</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -2066,9 +1960,8 @@
         <v>6</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="7">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -2077,9 +1970,8 @@
         <v>6</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="7">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -2088,9 +1980,8 @@
         <v>6</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>121</v>
       </c>
@@ -2103,9 +1994,8 @@
       <c r="E105" s="2">
         <v>43881</v>
       </c>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="7">
         <f t="shared" ref="A106:A108" si="4">A105+1</f>
         <v>122</v>
@@ -2114,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="7">
         <f t="shared" si="4"/>
         <v>123</v>
@@ -2123,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="7">
         <f t="shared" si="4"/>
         <v>124</v>
@@ -2132,7 +2022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>126</v>
       </c>
@@ -2143,7 +2033,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>128</v>
       </c>
@@ -2151,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="7">
         <f t="shared" ref="A111:A117" si="5">A110+1</f>
         <v>129</v>
@@ -2160,7 +2050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="7">
         <f t="shared" si="5"/>
         <v>130</v>
@@ -2306,7 +2196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="7">
         <f t="shared" si="6"/>
         <v>147</v>
@@ -2315,7 +2205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="7">
         <f t="shared" si="6"/>
         <v>148</v>
@@ -2324,7 +2214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="7">
         <f t="shared" si="6"/>
         <v>149</v>
@@ -2333,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="7">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -2342,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="7">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -2351,7 +2241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="7">
         <f t="shared" si="6"/>
         <v>152</v>
@@ -2360,7 +2250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="7">
         <f t="shared" si="6"/>
         <v>153</v>
@@ -2369,7 +2259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="7">
         <f t="shared" si="6"/>
         <v>154</v>
@@ -2378,7 +2268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="7">
         <f t="shared" si="6"/>
         <v>155</v>
@@ -2387,7 +2277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="7">
         <f t="shared" si="6"/>
         <v>156</v>
@@ -2396,7 +2286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>161</v>
       </c>
@@ -2412,11 +2302,8 @@
       <c r="E139" s="2">
         <v>43882</v>
       </c>
-      <c r="F139" s="2">
-        <v>43884</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>164</v>
       </c>
@@ -2427,7 +2314,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>188</v>
       </c>
@@ -2441,7 +2328,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>210</v>
       </c>
@@ -2452,7 +2339,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>239</v>
       </c>
@@ -2463,7 +2350,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>286</v>
       </c>
@@ -2474,7 +2361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>298</v>
       </c>
@@ -2485,7 +2372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -2499,7 +2386,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>363</v>
       </c>
@@ -2509,7 +2396,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>365</v>
       </c>
@@ -2525,11 +2412,8 @@
       <c r="E148" s="2">
         <v>43883</v>
       </c>
-      <c r="F148" s="2">
-        <v>43884</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>420</v>
       </c>
@@ -2546,7 +2430,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>443</v>
       </c>
@@ -2557,7 +2441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>489</v>
       </c>
@@ -2568,7 +2452,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>589</v>
       </c>
@@ -2579,7 +2463,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>593</v>
       </c>
@@ -2593,7 +2477,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>611</v>
       </c>
@@ -2601,7 +2485,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>627</v>
       </c>
@@ -2615,7 +2499,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>754</v>
       </c>
@@ -2629,7 +2513,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>755</v>
       </c>
@@ -2643,7 +2527,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>780</v>
       </c>
@@ -2658,7 +2542,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>787</v>
       </c>
@@ -2673,7 +2557,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>794</v>
       </c>
@@ -3160,7 +3044,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>2025</v>
       </c>
@@ -3168,7 +3052,7 @@
       <c r="C193" s="1"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>2466</v>
       </c>
@@ -3182,7 +3066,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>2468</v>
       </c>
@@ -3199,7 +3083,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>2469</v>
       </c>
@@ -3213,7 +3097,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>2470</v>
       </c>
@@ -3227,7 +3111,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>2471</v>
       </c>
@@ -3244,7 +3128,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>2621</v>
       </c>
@@ -3261,7 +3145,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="11">
         <v>2666</v>
       </c>
@@ -3283,16 +3167,8 @@
       <c r="K200" s="12"/>
       <c r="L200" s="12"/>
       <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
-      <c r="O200" s="12"/>
-      <c r="P200" s="12"/>
-      <c r="Q200" s="12"/>
-      <c r="R200" s="12"/>
-      <c r="S200" s="12"/>
-      <c r="T200" s="12"/>
-      <c r="U200" s="12"/>
-    </row>
-    <row r="201" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="201" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="11">
         <v>2740</v>
       </c>
@@ -3314,16 +3190,8 @@
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
       <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
-      <c r="O201" s="12"/>
-      <c r="P201" s="12"/>
-      <c r="Q201" s="12"/>
-      <c r="R201" s="12"/>
-      <c r="S201" s="12"/>
-      <c r="T201" s="12"/>
-      <c r="U201" s="12"/>
-    </row>
-    <row r="202" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="11">
         <v>2818</v>
       </c>
@@ -3347,16 +3215,8 @@
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
-      <c r="Q202" s="12"/>
-      <c r="R202" s="12"/>
-      <c r="S202" s="12"/>
-      <c r="T202" s="12"/>
-      <c r="U202" s="12"/>
-    </row>
-    <row r="203" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="11">
         <v>2833</v>
       </c>
@@ -3378,16 +3238,8 @@
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
       <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
-      <c r="O203" s="12"/>
-      <c r="P203" s="12"/>
-      <c r="Q203" s="12"/>
-      <c r="R203" s="12"/>
-      <c r="S203" s="12"/>
-      <c r="T203" s="12"/>
-      <c r="U203" s="12"/>
-    </row>
-    <row r="204" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="204" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="11">
         <v>2840</v>
       </c>
@@ -3411,16 +3263,8 @@
       <c r="K204" s="12"/>
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
-      <c r="O204" s="12"/>
-      <c r="P204" s="12"/>
-      <c r="Q204" s="12"/>
-      <c r="R204" s="12"/>
-      <c r="S204" s="12"/>
-      <c r="T204" s="12"/>
-      <c r="U204" s="12"/>
-    </row>
-    <row r="205" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="205" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="11">
         <v>2858</v>
       </c>
@@ -3442,16 +3286,8 @@
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
       <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
-      <c r="O205" s="12"/>
-      <c r="P205" s="12"/>
-      <c r="Q205" s="12"/>
-      <c r="R205" s="12"/>
-      <c r="S205" s="12"/>
-      <c r="T205" s="12"/>
-      <c r="U205" s="12"/>
-    </row>
-    <row r="206" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="206" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="11">
         <v>3007</v>
       </c>
@@ -3473,16 +3309,8 @@
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
       <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="12"/>
-      <c r="R206" s="12"/>
-      <c r="S206" s="12"/>
-      <c r="T206" s="12"/>
-      <c r="U206" s="12"/>
-    </row>
-    <row r="207" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="207" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="11">
         <v>3046</v>
       </c>
@@ -3506,16 +3334,8 @@
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
-      <c r="N207" s="12"/>
-      <c r="O207" s="12"/>
-      <c r="P207" s="12"/>
-      <c r="Q207" s="12"/>
-      <c r="R207" s="12"/>
-      <c r="S207" s="12"/>
-      <c r="T207" s="12"/>
-      <c r="U207" s="12"/>
-    </row>
-    <row r="208" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="11">
         <v>3054</v>
       </c>
@@ -3539,16 +3359,8 @@
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
       <c r="M208" s="12"/>
-      <c r="N208" s="12"/>
-      <c r="O208" s="12"/>
-      <c r="P208" s="12"/>
-      <c r="Q208" s="12"/>
-      <c r="R208" s="12"/>
-      <c r="S208" s="12"/>
-      <c r="T208" s="12"/>
-      <c r="U208" s="12"/>
-    </row>
-    <row r="209" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="11">
         <v>3261</v>
       </c>
@@ -3570,16 +3382,8 @@
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
-      <c r="N209" s="12"/>
-      <c r="O209" s="12"/>
-      <c r="P209" s="12"/>
-      <c r="Q209" s="12"/>
-      <c r="R209" s="12"/>
-      <c r="S209" s="12"/>
-      <c r="T209" s="12"/>
-      <c r="U209" s="12"/>
-    </row>
-    <row r="210" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="11">
         <v>3262</v>
       </c>
@@ -3603,16 +3407,8 @@
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
       <c r="M210" s="12"/>
-      <c r="N210" s="12"/>
-      <c r="O210" s="12"/>
-      <c r="P210" s="12"/>
-      <c r="Q210" s="12"/>
-      <c r="R210" s="12"/>
-      <c r="S210" s="12"/>
-      <c r="T210" s="12"/>
-      <c r="U210" s="12"/>
-    </row>
-    <row r="211" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="11">
         <v>3263</v>
       </c>
@@ -3636,16 +3432,8 @@
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
       <c r="M211" s="12"/>
-      <c r="N211" s="12"/>
-      <c r="O211" s="12"/>
-      <c r="P211" s="12"/>
-      <c r="Q211" s="12"/>
-      <c r="R211" s="12"/>
-      <c r="S211" s="12"/>
-      <c r="T211" s="12"/>
-      <c r="U211" s="12"/>
-    </row>
-    <row r="212" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="212" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="11">
         <v>3491</v>
       </c>
@@ -3669,16 +3457,8 @@
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
       <c r="M212" s="12"/>
-      <c r="N212" s="12"/>
-      <c r="O212" s="12"/>
-      <c r="P212" s="12"/>
-      <c r="Q212" s="12"/>
-      <c r="R212" s="12"/>
-      <c r="S212" s="12"/>
-      <c r="T212" s="12"/>
-      <c r="U212" s="12"/>
-    </row>
-    <row r="213" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="11">
         <v>3517</v>
       </c>
@@ -3702,16 +3482,8 @@
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
       <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12"/>
-      <c r="S213" s="12"/>
-      <c r="T213" s="12"/>
-      <c r="U213" s="12"/>
-    </row>
-    <row r="214" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="214" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="11">
         <v>3679</v>
       </c>
@@ -3735,16 +3507,8 @@
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
       <c r="M214" s="12"/>
-      <c r="N214" s="12"/>
-      <c r="O214" s="12"/>
-      <c r="P214" s="12"/>
-      <c r="Q214" s="12"/>
-      <c r="R214" s="12"/>
-      <c r="S214" s="12"/>
-      <c r="T214" s="12"/>
-      <c r="U214" s="12"/>
-    </row>
-    <row r="215" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="11">
         <v>3680</v>
       </c>
@@ -3768,16 +3532,8 @@
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
       <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
-      <c r="O215" s="12"/>
-      <c r="P215" s="12"/>
-      <c r="Q215" s="12"/>
-      <c r="R215" s="12"/>
-      <c r="S215" s="12"/>
-      <c r="T215" s="12"/>
-      <c r="U215" s="12"/>
-    </row>
-    <row r="216" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="11">
         <v>3684</v>
       </c>
@@ -3799,16 +3555,8 @@
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
       <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="Q216" s="12"/>
-      <c r="R216" s="12"/>
-      <c r="S216" s="12"/>
-      <c r="T216" s="12"/>
-      <c r="U216" s="12"/>
-    </row>
-    <row r="217" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="13">
         <v>3616</v>
       </c>
@@ -3830,16 +3578,8 @@
       <c r="K217" s="12"/>
       <c r="L217" s="12"/>
       <c r="M217" s="12"/>
-      <c r="N217" s="12"/>
-      <c r="O217" s="12"/>
-      <c r="P217" s="12"/>
-      <c r="Q217" s="12"/>
-      <c r="R217" s="12"/>
-      <c r="S217" s="12"/>
-      <c r="T217" s="12"/>
-      <c r="U217" s="12"/>
-    </row>
-    <row r="218" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="13">
         <v>3703</v>
       </c>
@@ -3863,16 +3603,8 @@
       <c r="K218" s="12"/>
       <c r="L218" s="12"/>
       <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
-      <c r="P218" s="12"/>
-      <c r="Q218" s="12"/>
-      <c r="R218" s="12"/>
-      <c r="S218" s="12"/>
-      <c r="T218" s="12"/>
-      <c r="U218" s="12"/>
-    </row>
-    <row r="219" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="13">
         <v>3790</v>
       </c>
@@ -3894,16 +3626,8 @@
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
       <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
-      <c r="O219" s="12"/>
-      <c r="P219" s="12"/>
-      <c r="Q219" s="12"/>
-      <c r="R219" s="12"/>
-      <c r="S219" s="12"/>
-      <c r="T219" s="12"/>
-      <c r="U219" s="12"/>
-    </row>
-    <row r="220" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="13">
         <v>3797</v>
       </c>
@@ -3925,16 +3649,8 @@
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
       <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12"/>
-      <c r="S220" s="12"/>
-      <c r="T220" s="12"/>
-      <c r="U220" s="12"/>
-    </row>
-    <row r="221" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="13">
         <v>3815</v>
       </c>
@@ -3956,16 +3672,8 @@
       <c r="K221" s="12"/>
       <c r="L221" s="12"/>
       <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
-      <c r="O221" s="12"/>
-      <c r="P221" s="12"/>
-      <c r="Q221" s="12"/>
-      <c r="R221" s="12"/>
-      <c r="S221" s="12"/>
-      <c r="T221" s="12"/>
-      <c r="U221" s="12"/>
-    </row>
-    <row r="222" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="13">
         <v>4174</v>
       </c>
@@ -3989,16 +3697,8 @@
       <c r="K222" s="12"/>
       <c r="L222" s="12"/>
       <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
-      <c r="O222" s="12"/>
-      <c r="P222" s="12"/>
-      <c r="Q222" s="12"/>
-      <c r="R222" s="12"/>
-      <c r="S222" s="12"/>
-      <c r="T222" s="12"/>
-      <c r="U222" s="12"/>
-    </row>
-    <row r="223" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="13">
         <v>4224</v>
       </c>
@@ -4022,16 +3722,8 @@
       <c r="K223" s="12"/>
       <c r="L223" s="12"/>
       <c r="M223" s="12"/>
-      <c r="N223" s="12"/>
-      <c r="O223" s="12"/>
-      <c r="P223" s="12"/>
-      <c r="Q223" s="12"/>
-      <c r="R223" s="12"/>
-      <c r="S223" s="12"/>
-      <c r="T223" s="12"/>
-      <c r="U223" s="12"/>
-    </row>
-    <row r="224" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="13">
         <v>4517</v>
       </c>
@@ -4053,16 +3745,8 @@
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-      <c r="P224" s="12"/>
-      <c r="Q224" s="12"/>
-      <c r="R224" s="12"/>
-      <c r="S224" s="12"/>
-      <c r="T224" s="12"/>
-      <c r="U224" s="12"/>
-    </row>
-    <row r="225" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="13">
         <v>4558</v>
       </c>
@@ -4084,16 +3768,8 @@
       <c r="K225" s="12"/>
       <c r="L225" s="12"/>
       <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
-      <c r="O225" s="12"/>
-      <c r="P225" s="12"/>
-      <c r="Q225" s="12"/>
-      <c r="R225" s="12"/>
-      <c r="S225" s="12"/>
-      <c r="T225" s="12"/>
-      <c r="U225" s="12"/>
-    </row>
-    <row r="226" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="13">
         <v>4634</v>
       </c>
@@ -4115,16 +3791,8 @@
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
-      <c r="P226" s="12"/>
-      <c r="Q226" s="12"/>
-      <c r="R226" s="12"/>
-      <c r="S226" s="12"/>
-      <c r="T226" s="12"/>
-      <c r="U226" s="12"/>
-    </row>
-    <row r="227" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="13">
         <v>4645</v>
       </c>
@@ -4148,16 +3816,8 @@
       <c r="K227" s="12"/>
       <c r="L227" s="12"/>
       <c r="M227" s="12"/>
-      <c r="N227" s="12"/>
-      <c r="O227" s="12"/>
-      <c r="P227" s="12"/>
-      <c r="Q227" s="12"/>
-      <c r="R227" s="12"/>
-      <c r="S227" s="12"/>
-      <c r="T227" s="12"/>
-      <c r="U227" s="12"/>
-    </row>
-    <row r="228" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="13">
         <v>4709</v>
       </c>
@@ -4179,16 +3839,8 @@
       <c r="K228" s="12"/>
       <c r="L228" s="12"/>
       <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
-      <c r="O228" s="12"/>
-      <c r="P228" s="12"/>
-      <c r="Q228" s="12"/>
-      <c r="R228" s="12"/>
-      <c r="S228" s="12"/>
-      <c r="T228" s="12"/>
-      <c r="U228" s="12"/>
-    </row>
-    <row r="229" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="13">
         <v>4743</v>
       </c>
@@ -4210,16 +3862,8 @@
       <c r="K229" s="12"/>
       <c r="L229" s="12"/>
       <c r="M229" s="12"/>
-      <c r="N229" s="12"/>
-      <c r="O229" s="12"/>
-      <c r="P229" s="12"/>
-      <c r="Q229" s="12"/>
-      <c r="R229" s="12"/>
-      <c r="S229" s="12"/>
-      <c r="T229" s="12"/>
-      <c r="U229" s="12"/>
-    </row>
-    <row r="230" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="13">
         <v>5377</v>
       </c>
@@ -4243,16 +3887,8 @@
       <c r="K230" s="12"/>
       <c r="L230" s="12"/>
       <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
-      <c r="O230" s="12"/>
-      <c r="P230" s="12"/>
-      <c r="Q230" s="12"/>
-      <c r="R230" s="12"/>
-      <c r="S230" s="12"/>
-      <c r="T230" s="12"/>
-      <c r="U230" s="12"/>
-    </row>
-    <row r="231" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="13">
         <v>5592</v>
       </c>
@@ -4274,16 +3910,8 @@
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
-      <c r="O231" s="12"/>
-      <c r="P231" s="12"/>
-      <c r="Q231" s="12"/>
-      <c r="R231" s="12"/>
-      <c r="S231" s="12"/>
-      <c r="T231" s="12"/>
-      <c r="U231" s="12"/>
-    </row>
-    <row r="232" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="13">
         <v>5661</v>
       </c>
@@ -4305,16 +3933,8 @@
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
-      <c r="O232" s="12"/>
-      <c r="P232" s="12"/>
-      <c r="Q232" s="12"/>
-      <c r="R232" s="12"/>
-      <c r="S232" s="12"/>
-      <c r="T232" s="12"/>
-      <c r="U232" s="12"/>
-    </row>
-    <row r="233" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="13">
         <v>5666</v>
       </c>
@@ -4336,16 +3956,8 @@
       <c r="K233" s="12"/>
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
-      <c r="N233" s="12"/>
-      <c r="O233" s="12"/>
-      <c r="P233" s="12"/>
-      <c r="Q233" s="12"/>
-      <c r="R233" s="12"/>
-      <c r="S233" s="12"/>
-      <c r="T233" s="12"/>
-      <c r="U233" s="12"/>
-    </row>
-    <row r="234" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="234" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="13">
         <v>5695</v>
       </c>
@@ -4367,16 +3979,8 @@
       <c r="K234" s="12"/>
       <c r="L234" s="12"/>
       <c r="M234" s="12"/>
-      <c r="N234" s="12"/>
-      <c r="O234" s="12"/>
-      <c r="P234" s="12"/>
-      <c r="Q234" s="12"/>
-      <c r="R234" s="12"/>
-      <c r="S234" s="12"/>
-      <c r="T234" s="12"/>
-      <c r="U234" s="12"/>
-    </row>
-    <row r="235" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="13">
         <v>6070</v>
       </c>
@@ -4398,16 +4002,8 @@
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
       <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
-      <c r="P235" s="12"/>
-      <c r="Q235" s="12"/>
-      <c r="R235" s="12"/>
-      <c r="S235" s="12"/>
-      <c r="T235" s="12"/>
-      <c r="U235" s="12"/>
-    </row>
-    <row r="236" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="13">
         <v>6131</v>
       </c>
@@ -4429,16 +4025,8 @@
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
-      <c r="N236" s="12"/>
-      <c r="O236" s="12"/>
-      <c r="P236" s="12"/>
-      <c r="Q236" s="12"/>
-      <c r="R236" s="12"/>
-      <c r="S236" s="12"/>
-      <c r="T236" s="12"/>
-      <c r="U236" s="12"/>
-    </row>
-    <row r="237" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="13">
         <v>6384</v>
       </c>
@@ -4460,16 +4048,8 @@
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
       <c r="M237" s="12"/>
-      <c r="N237" s="12"/>
-      <c r="O237" s="12"/>
-      <c r="P237" s="12"/>
-      <c r="Q237" s="12"/>
-      <c r="R237" s="12"/>
-      <c r="S237" s="12"/>
-      <c r="T237" s="12"/>
-      <c r="U237" s="12"/>
-    </row>
-    <row r="238" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="13">
         <v>6589</v>
       </c>
@@ -4491,16 +4071,8 @@
       <c r="K238" s="12"/>
       <c r="L238" s="12"/>
       <c r="M238" s="12"/>
-      <c r="N238" s="12"/>
-      <c r="O238" s="12"/>
-      <c r="P238" s="12"/>
-      <c r="Q238" s="12"/>
-      <c r="R238" s="12"/>
-      <c r="S238" s="12"/>
-      <c r="T238" s="12"/>
-      <c r="U238" s="12"/>
-    </row>
-    <row r="239" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="13">
         <v>6727</v>
       </c>
@@ -4524,16 +4096,8 @@
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
-      <c r="P239" s="12"/>
-      <c r="Q239" s="12"/>
-      <c r="R239" s="12"/>
-      <c r="S239" s="12"/>
-      <c r="T239" s="12"/>
-      <c r="U239" s="12"/>
-    </row>
-    <row r="240" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="13">
         <v>6773</v>
       </c>
@@ -4557,16 +4121,8 @@
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
-      <c r="O240" s="12"/>
-      <c r="P240" s="12"/>
-      <c r="Q240" s="12"/>
-      <c r="R240" s="12"/>
-      <c r="S240" s="12"/>
-      <c r="T240" s="12"/>
-      <c r="U240" s="12"/>
-    </row>
-    <row r="241" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="13">
         <v>6781</v>
       </c>
@@ -4588,16 +4144,8 @@
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
       <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
-      <c r="P241" s="12"/>
-      <c r="Q241" s="12"/>
-      <c r="R241" s="12"/>
-      <c r="S241" s="12"/>
-      <c r="T241" s="12"/>
-      <c r="U241" s="12"/>
-    </row>
-    <row r="242" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="242" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="13">
         <v>6832</v>
       </c>
@@ -4621,16 +4169,8 @@
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
       <c r="M242" s="12"/>
-      <c r="N242" s="12"/>
-      <c r="O242" s="12"/>
-      <c r="P242" s="12"/>
-      <c r="Q242" s="12"/>
-      <c r="R242" s="12"/>
-      <c r="S242" s="12"/>
-      <c r="T242" s="12"/>
-      <c r="U242" s="12"/>
-    </row>
-    <row r="243" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="13">
         <v>6845</v>
       </c>
@@ -4652,16 +4192,8 @@
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
-      <c r="O243" s="12"/>
-      <c r="P243" s="12"/>
-      <c r="Q243" s="12"/>
-      <c r="R243" s="12"/>
-      <c r="S243" s="12"/>
-      <c r="T243" s="12"/>
-      <c r="U243" s="12"/>
-    </row>
-    <row r="244" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="13">
         <v>6883</v>
       </c>
@@ -4685,16 +4217,8 @@
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
-      <c r="O244" s="12"/>
-      <c r="P244" s="12"/>
-      <c r="Q244" s="12"/>
-      <c r="R244" s="12"/>
-      <c r="S244" s="12"/>
-      <c r="T244" s="12"/>
-      <c r="U244" s="12"/>
-    </row>
-    <row r="245" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="13">
         <v>6921</v>
       </c>
@@ -4716,16 +4240,8 @@
       <c r="K245" s="12"/>
       <c r="L245" s="12"/>
       <c r="M245" s="12"/>
-      <c r="N245" s="12"/>
-      <c r="O245" s="12"/>
-      <c r="P245" s="12"/>
-      <c r="Q245" s="12"/>
-      <c r="R245" s="12"/>
-      <c r="S245" s="12"/>
-      <c r="T245" s="12"/>
-      <c r="U245" s="12"/>
-    </row>
-    <row r="246" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="13">
         <v>6937</v>
       </c>
@@ -4747,16 +4263,8 @@
       <c r="K246" s="12"/>
       <c r="L246" s="12"/>
       <c r="M246" s="12"/>
-      <c r="N246" s="12"/>
-      <c r="O246" s="12"/>
-      <c r="P246" s="12"/>
-      <c r="Q246" s="12"/>
-      <c r="R246" s="12"/>
-      <c r="S246" s="12"/>
-      <c r="T246" s="12"/>
-      <c r="U246" s="12"/>
-    </row>
-    <row r="247" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="13">
         <v>6959</v>
       </c>
@@ -4780,16 +4288,8 @@
       <c r="K247" s="12"/>
       <c r="L247" s="12"/>
       <c r="M247" s="12"/>
-      <c r="N247" s="12"/>
-      <c r="O247" s="12"/>
-      <c r="P247" s="12"/>
-      <c r="Q247" s="12"/>
-      <c r="R247" s="12"/>
-      <c r="S247" s="12"/>
-      <c r="T247" s="12"/>
-      <c r="U247" s="12"/>
-    </row>
-    <row r="248" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="13">
         <v>6999</v>
       </c>
@@ -4813,16 +4313,8 @@
       <c r="K248" s="12"/>
       <c r="L248" s="12"/>
       <c r="M248" s="12"/>
-      <c r="N248" s="12"/>
-      <c r="O248" s="12"/>
-      <c r="P248" s="12"/>
-      <c r="Q248" s="12"/>
-      <c r="R248" s="12"/>
-      <c r="S248" s="12"/>
-      <c r="T248" s="12"/>
-      <c r="U248" s="12"/>
-    </row>
-    <row r="249" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="249" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="13">
         <v>7011</v>
       </c>
@@ -4844,16 +4336,8 @@
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
       <c r="M249" s="12"/>
-      <c r="N249" s="12"/>
-      <c r="O249" s="12"/>
-      <c r="P249" s="12"/>
-      <c r="Q249" s="12"/>
-      <c r="R249" s="12"/>
-      <c r="S249" s="12"/>
-      <c r="T249" s="12"/>
-      <c r="U249" s="12"/>
-    </row>
-    <row r="250" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="13">
         <v>7027</v>
       </c>
@@ -4877,16 +4361,8 @@
       <c r="K250" s="12"/>
       <c r="L250" s="12"/>
       <c r="M250" s="12"/>
-      <c r="N250" s="12"/>
-      <c r="O250" s="12"/>
-      <c r="P250" s="12"/>
-      <c r="Q250" s="12"/>
-      <c r="R250" s="12"/>
-      <c r="S250" s="12"/>
-      <c r="T250" s="12"/>
-      <c r="U250" s="12"/>
-    </row>
-    <row r="251" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="251" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="13">
         <v>7103</v>
       </c>
@@ -4908,16 +4384,8 @@
       <c r="K251" s="12"/>
       <c r="L251" s="12"/>
       <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
-      <c r="O251" s="12"/>
-      <c r="P251" s="12"/>
-      <c r="Q251" s="12"/>
-      <c r="R251" s="12"/>
-      <c r="S251" s="12"/>
-      <c r="T251" s="12"/>
-      <c r="U251" s="12"/>
-    </row>
-    <row r="252" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="13">
         <v>7219</v>
       </c>
@@ -4941,16 +4409,8 @@
       <c r="K252" s="12"/>
       <c r="L252" s="12"/>
       <c r="M252" s="12"/>
-      <c r="N252" s="12"/>
-      <c r="O252" s="12"/>
-      <c r="P252" s="12"/>
-      <c r="Q252" s="12"/>
-      <c r="R252" s="12"/>
-      <c r="S252" s="12"/>
-      <c r="T252" s="12"/>
-      <c r="U252" s="12"/>
-    </row>
-    <row r="253" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="13">
         <v>7234</v>
       </c>
@@ -4974,16 +4434,8 @@
       <c r="K253" s="12"/>
       <c r="L253" s="12"/>
       <c r="M253" s="12"/>
-      <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
-      <c r="P253" s="12"/>
-      <c r="Q253" s="12"/>
-      <c r="R253" s="12"/>
-      <c r="S253" s="12"/>
-      <c r="T253" s="12"/>
-      <c r="U253" s="12"/>
-    </row>
-    <row r="254" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="13">
         <v>7243</v>
       </c>
@@ -5005,16 +4457,8 @@
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
-      <c r="N254" s="12"/>
-      <c r="O254" s="12"/>
-      <c r="P254" s="12"/>
-      <c r="Q254" s="12"/>
-      <c r="R254" s="12"/>
-      <c r="S254" s="12"/>
-      <c r="T254" s="12"/>
-      <c r="U254" s="12"/>
-    </row>
-    <row r="255" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="13">
         <v>7247</v>
       </c>
@@ -5036,16 +4480,8 @@
       <c r="K255" s="12"/>
       <c r="L255" s="12"/>
       <c r="M255" s="12"/>
-      <c r="N255" s="12"/>
-      <c r="O255" s="12"/>
-      <c r="P255" s="12"/>
-      <c r="Q255" s="12"/>
-      <c r="R255" s="12"/>
-      <c r="S255" s="12"/>
-      <c r="T255" s="12"/>
-      <c r="U255" s="12"/>
-    </row>
-    <row r="256" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="13">
         <v>7265</v>
       </c>
@@ -5067,16 +4503,8 @@
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
       <c r="M256" s="12"/>
-      <c r="N256" s="12"/>
-      <c r="O256" s="12"/>
-      <c r="P256" s="12"/>
-      <c r="Q256" s="12"/>
-      <c r="R256" s="12"/>
-      <c r="S256" s="12"/>
-      <c r="T256" s="12"/>
-      <c r="U256" s="12"/>
-    </row>
-    <row r="257" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="13">
         <v>7275</v>
       </c>
@@ -5100,16 +4528,8 @@
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
       <c r="M257" s="12"/>
-      <c r="N257" s="12"/>
-      <c r="O257" s="12"/>
-      <c r="P257" s="12"/>
-      <c r="Q257" s="12"/>
-      <c r="R257" s="12"/>
-      <c r="S257" s="12"/>
-      <c r="T257" s="12"/>
-      <c r="U257" s="12"/>
-    </row>
-    <row r="258" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="13">
         <v>7280</v>
       </c>
@@ -5131,16 +4551,8 @@
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
       <c r="M258" s="12"/>
-      <c r="N258" s="12"/>
-      <c r="O258" s="12"/>
-      <c r="P258" s="12"/>
-      <c r="Q258" s="12"/>
-      <c r="R258" s="12"/>
-      <c r="S258" s="12"/>
-      <c r="T258" s="12"/>
-      <c r="U258" s="12"/>
-    </row>
-    <row r="259" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="13">
         <v>7281</v>
       </c>
@@ -5164,16 +4576,8 @@
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
       <c r="M259" s="12"/>
-      <c r="N259" s="12"/>
-      <c r="O259" s="12"/>
-      <c r="P259" s="12"/>
-      <c r="Q259" s="12"/>
-      <c r="R259" s="12"/>
-      <c r="S259" s="12"/>
-      <c r="T259" s="12"/>
-      <c r="U259" s="12"/>
-    </row>
-    <row r="260" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="13">
         <v>7297</v>
       </c>
@@ -5197,16 +4601,8 @@
       <c r="K260" s="12"/>
       <c r="L260" s="12"/>
       <c r="M260" s="12"/>
-      <c r="N260" s="12"/>
-      <c r="O260" s="12"/>
-      <c r="P260" s="12"/>
-      <c r="Q260" s="12"/>
-      <c r="R260" s="12"/>
-      <c r="S260" s="12"/>
-      <c r="T260" s="12"/>
-      <c r="U260" s="12"/>
-    </row>
-    <row r="261" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="261" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="13">
         <v>7300</v>
       </c>
@@ -5228,16 +4624,8 @@
       <c r="K261" s="12"/>
       <c r="L261" s="12"/>
       <c r="M261" s="12"/>
-      <c r="N261" s="12"/>
-      <c r="O261" s="12"/>
-      <c r="P261" s="12"/>
-      <c r="Q261" s="12"/>
-      <c r="R261" s="12"/>
-      <c r="S261" s="12"/>
-      <c r="T261" s="12"/>
-      <c r="U261" s="12"/>
-    </row>
-    <row r="262" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="13">
         <v>7401</v>
       </c>
@@ -5261,16 +4649,8 @@
       <c r="K262" s="12"/>
       <c r="L262" s="12"/>
       <c r="M262" s="12"/>
-      <c r="N262" s="12"/>
-      <c r="O262" s="12"/>
-      <c r="P262" s="12"/>
-      <c r="Q262" s="12"/>
-      <c r="R262" s="12"/>
-      <c r="S262" s="12"/>
-      <c r="T262" s="12"/>
-      <c r="U262" s="12"/>
-    </row>
-    <row r="263" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="13">
         <v>7479</v>
       </c>
@@ -5292,16 +4672,8 @@
       <c r="K263" s="12"/>
       <c r="L263" s="12"/>
       <c r="M263" s="12"/>
-      <c r="N263" s="12"/>
-      <c r="O263" s="12"/>
-      <c r="P263" s="12"/>
-      <c r="Q263" s="12"/>
-      <c r="R263" s="12"/>
-      <c r="S263" s="12"/>
-      <c r="T263" s="12"/>
-      <c r="U263" s="12"/>
-    </row>
-    <row r="264" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="264" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -5315,16 +4687,8 @@
       <c r="K264" s="12"/>
       <c r="L264" s="12"/>
       <c r="M264" s="12"/>
-      <c r="N264" s="12"/>
-      <c r="O264" s="12"/>
-      <c r="P264" s="12"/>
-      <c r="Q264" s="12"/>
-      <c r="R264" s="12"/>
-      <c r="S264" s="12"/>
-      <c r="T264" s="12"/>
-      <c r="U264" s="12"/>
-    </row>
-    <row r="265" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="265" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="13">
         <v>7437</v>
       </c>
@@ -5346,16 +4710,8 @@
       <c r="K265" s="12"/>
       <c r="L265" s="12"/>
       <c r="M265" s="12"/>
-      <c r="N265" s="12"/>
-      <c r="O265" s="12"/>
-      <c r="P265" s="12"/>
-      <c r="Q265" s="12"/>
-      <c r="R265" s="12"/>
-      <c r="S265" s="12"/>
-      <c r="T265" s="12"/>
-      <c r="U265" s="12"/>
-    </row>
-    <row r="266" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="266" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="13">
         <v>7513</v>
       </c>
@@ -5377,16 +4733,8 @@
       <c r="K266" s="12"/>
       <c r="L266" s="12"/>
       <c r="M266" s="12"/>
-      <c r="N266" s="12"/>
-      <c r="O266" s="12"/>
-      <c r="P266" s="12"/>
-      <c r="Q266" s="12"/>
-      <c r="R266" s="12"/>
-      <c r="S266" s="12"/>
-      <c r="T266" s="12"/>
-      <c r="U266" s="12"/>
-    </row>
-    <row r="267" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="267" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="13">
         <v>7461</v>
       </c>
@@ -5408,16 +4756,8 @@
       <c r="K267" s="12"/>
       <c r="L267" s="12"/>
       <c r="M267" s="12"/>
-      <c r="N267" s="12"/>
-      <c r="O267" s="12"/>
-      <c r="P267" s="12"/>
-      <c r="Q267" s="12"/>
-      <c r="R267" s="12"/>
-      <c r="S267" s="12"/>
-      <c r="T267" s="12"/>
-      <c r="U267" s="12"/>
-    </row>
-    <row r="268" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="268" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="13">
         <v>7463</v>
       </c>
@@ -5439,16 +4779,8 @@
       <c r="K268" s="12"/>
       <c r="L268" s="12"/>
       <c r="M268" s="12"/>
-      <c r="N268" s="12"/>
-      <c r="O268" s="12"/>
-      <c r="P268" s="12"/>
-      <c r="Q268" s="12"/>
-      <c r="R268" s="12"/>
-      <c r="S268" s="12"/>
-      <c r="T268" s="12"/>
-      <c r="U268" s="12"/>
-    </row>
-    <row r="269" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="13">
         <v>7683</v>
       </c>
@@ -5470,16 +4802,8 @@
       <c r="K269" s="12"/>
       <c r="L269" s="12"/>
       <c r="M269" s="12"/>
-      <c r="N269" s="12"/>
-      <c r="O269" s="12"/>
-      <c r="P269" s="12"/>
-      <c r="Q269" s="12"/>
-      <c r="R269" s="12"/>
-      <c r="S269" s="12"/>
-      <c r="T269" s="12"/>
-      <c r="U269" s="12"/>
-    </row>
-    <row r="270" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -5493,16 +4817,8 @@
       <c r="K270" s="12"/>
       <c r="L270" s="12"/>
       <c r="M270" s="12"/>
-      <c r="N270" s="12"/>
-      <c r="O270" s="12"/>
-      <c r="P270" s="12"/>
-      <c r="Q270" s="12"/>
-      <c r="R270" s="12"/>
-      <c r="S270" s="12"/>
-      <c r="T270" s="12"/>
-      <c r="U270" s="12"/>
-    </row>
-    <row r="271" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="271" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="13">
         <v>7500</v>
       </c>
@@ -5526,16 +4842,8 @@
       <c r="K271" s="12"/>
       <c r="L271" s="12"/>
       <c r="M271" s="12"/>
-      <c r="N271" s="12"/>
-      <c r="O271" s="12"/>
-      <c r="P271" s="12"/>
-      <c r="Q271" s="12"/>
-      <c r="R271" s="12"/>
-      <c r="S271" s="12"/>
-      <c r="T271" s="12"/>
-      <c r="U271" s="12"/>
-    </row>
-    <row r="272" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="13">
         <v>7580</v>
       </c>
@@ -5559,16 +4867,8 @@
       <c r="K272" s="12"/>
       <c r="L272" s="12"/>
       <c r="M272" s="12"/>
-      <c r="N272" s="12"/>
-      <c r="O272" s="12"/>
-      <c r="P272" s="12"/>
-      <c r="Q272" s="12"/>
-      <c r="R272" s="12"/>
-      <c r="S272" s="12"/>
-      <c r="T272" s="12"/>
-      <c r="U272" s="12"/>
-    </row>
-    <row r="273" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="13">
         <v>7726</v>
       </c>
@@ -5590,16 +4890,8 @@
       <c r="K273" s="12"/>
       <c r="L273" s="12"/>
       <c r="M273" s="12"/>
-      <c r="N273" s="12"/>
-      <c r="O273" s="12"/>
-      <c r="P273" s="12"/>
-      <c r="Q273" s="12"/>
-      <c r="R273" s="12"/>
-      <c r="S273" s="12"/>
-      <c r="T273" s="12"/>
-      <c r="U273" s="12"/>
-    </row>
-    <row r="274" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="274" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -5613,16 +4905,8 @@
       <c r="K274" s="12"/>
       <c r="L274" s="12"/>
       <c r="M274" s="12"/>
-      <c r="N274" s="12"/>
-      <c r="O274" s="12"/>
-      <c r="P274" s="12"/>
-      <c r="Q274" s="12"/>
-      <c r="R274" s="12"/>
-      <c r="S274" s="12"/>
-      <c r="T274" s="12"/>
-      <c r="U274" s="12"/>
-    </row>
-    <row r="275" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="275" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="13">
         <v>7502</v>
       </c>
@@ -5644,16 +4928,8 @@
       <c r="K275" s="12"/>
       <c r="L275" s="12"/>
       <c r="M275" s="12"/>
-      <c r="N275" s="12"/>
-      <c r="O275" s="12"/>
-      <c r="P275" s="12"/>
-      <c r="Q275" s="12"/>
-      <c r="R275" s="12"/>
-      <c r="S275" s="12"/>
-      <c r="T275" s="12"/>
-      <c r="U275" s="12"/>
-    </row>
-    <row r="276" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="276" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="13">
         <v>7710</v>
       </c>
@@ -5675,16 +4951,8 @@
       <c r="K276" s="12"/>
       <c r="L276" s="12"/>
       <c r="M276" s="12"/>
-      <c r="N276" s="12"/>
-      <c r="O276" s="12"/>
-      <c r="P276" s="12"/>
-      <c r="Q276" s="12"/>
-      <c r="R276" s="12"/>
-      <c r="S276" s="12"/>
-      <c r="T276" s="12"/>
-      <c r="U276" s="12"/>
-    </row>
-    <row r="277" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="13">
         <v>7636</v>
       </c>
@@ -5706,16 +4974,8 @@
       <c r="K277" s="12"/>
       <c r="L277" s="12"/>
       <c r="M277" s="12"/>
-      <c r="N277" s="12"/>
-      <c r="O277" s="12"/>
-      <c r="P277" s="12"/>
-      <c r="Q277" s="12"/>
-      <c r="R277" s="12"/>
-      <c r="S277" s="12"/>
-      <c r="T277" s="12"/>
-      <c r="U277" s="12"/>
-    </row>
-    <row r="278" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="13">
         <v>7544</v>
       </c>
@@ -5737,16 +4997,8 @@
       <c r="K278" s="12"/>
       <c r="L278" s="12"/>
       <c r="M278" s="12"/>
-      <c r="N278" s="12"/>
-      <c r="O278" s="12"/>
-      <c r="P278" s="12"/>
-      <c r="Q278" s="12"/>
-      <c r="R278" s="12"/>
-      <c r="S278" s="12"/>
-      <c r="T278" s="12"/>
-      <c r="U278" s="12"/>
-    </row>
-    <row r="279" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="279" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="13">
         <v>7480</v>
       </c>
@@ -5768,16 +5020,8 @@
       <c r="K279" s="12"/>
       <c r="L279" s="12"/>
       <c r="M279" s="12"/>
-      <c r="N279" s="12"/>
-      <c r="O279" s="12"/>
-      <c r="P279" s="12"/>
-      <c r="Q279" s="12"/>
-      <c r="R279" s="12"/>
-      <c r="S279" s="12"/>
-      <c r="T279" s="12"/>
-      <c r="U279" s="12"/>
-    </row>
-    <row r="280" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="13">
         <v>7752</v>
       </c>
@@ -5799,16 +5043,8 @@
       <c r="K280" s="12"/>
       <c r="L280" s="12"/>
       <c r="M280" s="12"/>
-      <c r="N280" s="12"/>
-      <c r="O280" s="12"/>
-      <c r="P280" s="12"/>
-      <c r="Q280" s="12"/>
-      <c r="R280" s="12"/>
-      <c r="S280" s="12"/>
-      <c r="T280" s="12"/>
-      <c r="U280" s="12"/>
-    </row>
-    <row r="281" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="13">
         <v>7469</v>
       </c>
@@ -5830,16 +5066,8 @@
       <c r="K281" s="12"/>
       <c r="L281" s="12"/>
       <c r="M281" s="12"/>
-      <c r="N281" s="12"/>
-      <c r="O281" s="12"/>
-      <c r="P281" s="12"/>
-      <c r="Q281" s="12"/>
-      <c r="R281" s="12"/>
-      <c r="S281" s="12"/>
-      <c r="T281" s="12"/>
-      <c r="U281" s="12"/>
-    </row>
-    <row r="282" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="13">
         <v>7719</v>
       </c>
@@ -5861,16 +5089,8 @@
       <c r="K282" s="12"/>
       <c r="L282" s="12"/>
       <c r="M282" s="12"/>
-      <c r="N282" s="12"/>
-      <c r="O282" s="12"/>
-      <c r="P282" s="12"/>
-      <c r="Q282" s="12"/>
-      <c r="R282" s="12"/>
-      <c r="S282" s="12"/>
-      <c r="T282" s="12"/>
-      <c r="U282" s="12"/>
-    </row>
-    <row r="283" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="13">
         <v>7668</v>
       </c>
@@ -5892,16 +5112,8 @@
       <c r="K283" s="12"/>
       <c r="L283" s="12"/>
       <c r="M283" s="12"/>
-      <c r="N283" s="12"/>
-      <c r="O283" s="12"/>
-      <c r="P283" s="12"/>
-      <c r="Q283" s="12"/>
-      <c r="R283" s="12"/>
-      <c r="S283" s="12"/>
-      <c r="T283" s="12"/>
-      <c r="U283" s="12"/>
-    </row>
-    <row r="284" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="13">
         <v>7740</v>
       </c>
@@ -5925,16 +5137,8 @@
       <c r="K284" s="12"/>
       <c r="L284" s="12"/>
       <c r="M284" s="12"/>
-      <c r="N284" s="12"/>
-      <c r="O284" s="12"/>
-      <c r="P284" s="12"/>
-      <c r="Q284" s="12"/>
-      <c r="R284" s="12"/>
-      <c r="S284" s="12"/>
-      <c r="T284" s="12"/>
-      <c r="U284" s="12"/>
-    </row>
-    <row r="285" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="13">
         <v>7700</v>
       </c>
@@ -5956,16 +5160,8 @@
       <c r="K285" s="12"/>
       <c r="L285" s="12"/>
       <c r="M285" s="12"/>
-      <c r="N285" s="12"/>
-      <c r="O285" s="12"/>
-      <c r="P285" s="12"/>
-      <c r="Q285" s="12"/>
-      <c r="R285" s="12"/>
-      <c r="S285" s="12"/>
-      <c r="T285" s="12"/>
-      <c r="U285" s="12"/>
-    </row>
-    <row r="286" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="13">
         <v>7444</v>
       </c>
@@ -5987,16 +5183,8 @@
       <c r="K286" s="12"/>
       <c r="L286" s="12"/>
       <c r="M286" s="12"/>
-      <c r="N286" s="12"/>
-      <c r="O286" s="12"/>
-      <c r="P286" s="12"/>
-      <c r="Q286" s="12"/>
-      <c r="R286" s="12"/>
-      <c r="S286" s="12"/>
-      <c r="T286" s="12"/>
-      <c r="U286" s="12"/>
-    </row>
-    <row r="287" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="13">
         <v>7597</v>
       </c>
@@ -6018,16 +5206,8 @@
       <c r="K287" s="12"/>
       <c r="L287" s="12"/>
       <c r="M287" s="12"/>
-      <c r="N287" s="12"/>
-      <c r="O287" s="12"/>
-      <c r="P287" s="12"/>
-      <c r="Q287" s="12"/>
-      <c r="R287" s="12"/>
-      <c r="S287" s="12"/>
-      <c r="T287" s="12"/>
-      <c r="U287" s="12"/>
-    </row>
-    <row r="288" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="13">
         <v>7525</v>
       </c>
@@ -6049,16 +5229,8 @@
       <c r="K288" s="12"/>
       <c r="L288" s="12"/>
       <c r="M288" s="12"/>
-      <c r="N288" s="12"/>
-      <c r="O288" s="12"/>
-      <c r="P288" s="12"/>
-      <c r="Q288" s="12"/>
-      <c r="R288" s="12"/>
-      <c r="S288" s="12"/>
-      <c r="T288" s="12"/>
-      <c r="U288" s="12"/>
-    </row>
-    <row r="289" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="13">
         <v>7721</v>
       </c>
@@ -6080,16 +5252,8 @@
       <c r="K289" s="12"/>
       <c r="L289" s="12"/>
       <c r="M289" s="12"/>
-      <c r="N289" s="12"/>
-      <c r="O289" s="12"/>
-      <c r="P289" s="12"/>
-      <c r="Q289" s="12"/>
-      <c r="R289" s="12"/>
-      <c r="S289" s="12"/>
-      <c r="T289" s="12"/>
-      <c r="U289" s="12"/>
-    </row>
-    <row r="290" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="290" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="13">
         <v>7666</v>
       </c>
@@ -6111,16 +5275,8 @@
       <c r="K290" s="12"/>
       <c r="L290" s="12"/>
       <c r="M290" s="12"/>
-      <c r="N290" s="12"/>
-      <c r="O290" s="12"/>
-      <c r="P290" s="12"/>
-      <c r="Q290" s="12"/>
-      <c r="R290" s="12"/>
-      <c r="S290" s="12"/>
-      <c r="T290" s="12"/>
-      <c r="U290" s="12"/>
-    </row>
-    <row r="291" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="13">
         <v>7644</v>
       </c>
@@ -6142,16 +5298,8 @@
       <c r="K291" s="12"/>
       <c r="L291" s="12"/>
       <c r="M291" s="12"/>
-      <c r="N291" s="12"/>
-      <c r="O291" s="12"/>
-      <c r="P291" s="12"/>
-      <c r="Q291" s="12"/>
-      <c r="R291" s="12"/>
-      <c r="S291" s="12"/>
-      <c r="T291" s="12"/>
-      <c r="U291" s="12"/>
-    </row>
-    <row r="292" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="13">
         <v>7603</v>
       </c>
@@ -6173,16 +5321,8 @@
       <c r="K292" s="12"/>
       <c r="L292" s="12"/>
       <c r="M292" s="12"/>
-      <c r="N292" s="12"/>
-      <c r="O292" s="12"/>
-      <c r="P292" s="12"/>
-      <c r="Q292" s="12"/>
-      <c r="R292" s="12"/>
-      <c r="S292" s="12"/>
-      <c r="T292" s="12"/>
-      <c r="U292" s="12"/>
-    </row>
-    <row r="293" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="13">
         <v>7727</v>
       </c>
@@ -6204,16 +5344,8 @@
       <c r="K293" s="12"/>
       <c r="L293" s="12"/>
       <c r="M293" s="12"/>
-      <c r="N293" s="12"/>
-      <c r="O293" s="12"/>
-      <c r="P293" s="12"/>
-      <c r="Q293" s="12"/>
-      <c r="R293" s="12"/>
-      <c r="S293" s="12"/>
-      <c r="T293" s="12"/>
-      <c r="U293" s="12"/>
-    </row>
-    <row r="294" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="294" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="13">
         <v>7723</v>
       </c>
@@ -6235,16 +5367,8 @@
       <c r="K294" s="12"/>
       <c r="L294" s="12"/>
       <c r="M294" s="12"/>
-      <c r="N294" s="12"/>
-      <c r="O294" s="12"/>
-      <c r="P294" s="12"/>
-      <c r="Q294" s="12"/>
-      <c r="R294" s="12"/>
-      <c r="S294" s="12"/>
-      <c r="T294" s="12"/>
-      <c r="U294" s="12"/>
-    </row>
-    <row r="295" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="295" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="13">
         <v>7573</v>
       </c>
@@ -6268,16 +5392,8 @@
       <c r="K295" s="12"/>
       <c r="L295" s="12"/>
       <c r="M295" s="12"/>
-      <c r="N295" s="12"/>
-      <c r="O295" s="12"/>
-      <c r="P295" s="12"/>
-      <c r="Q295" s="12"/>
-      <c r="R295" s="12"/>
-      <c r="S295" s="12"/>
-      <c r="T295" s="12"/>
-      <c r="U295" s="12"/>
-    </row>
-    <row r="296" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="296" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="13">
         <v>7624</v>
       </c>
@@ -6299,16 +5415,8 @@
       <c r="K296" s="12"/>
       <c r="L296" s="12"/>
       <c r="M296" s="12"/>
-      <c r="N296" s="12"/>
-      <c r="O296" s="12"/>
-      <c r="P296" s="12"/>
-      <c r="Q296" s="12"/>
-      <c r="R296" s="12"/>
-      <c r="S296" s="12"/>
-      <c r="T296" s="12"/>
-      <c r="U296" s="12"/>
-    </row>
-    <row r="297" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="297" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="13">
         <v>7685</v>
       </c>
@@ -6330,16 +5438,8 @@
       <c r="K297" s="12"/>
       <c r="L297" s="12"/>
       <c r="M297" s="12"/>
-      <c r="N297" s="12"/>
-      <c r="O297" s="12"/>
-      <c r="P297" s="12"/>
-      <c r="Q297" s="12"/>
-      <c r="R297" s="12"/>
-      <c r="S297" s="12"/>
-      <c r="T297" s="12"/>
-      <c r="U297" s="12"/>
-    </row>
-    <row r="298" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="13">
         <v>7622</v>
       </c>
@@ -6361,16 +5461,8 @@
       <c r="K298" s="12"/>
       <c r="L298" s="12"/>
       <c r="M298" s="12"/>
-      <c r="N298" s="12"/>
-      <c r="O298" s="12"/>
-      <c r="P298" s="12"/>
-      <c r="Q298" s="12"/>
-      <c r="R298" s="12"/>
-      <c r="S298" s="12"/>
-      <c r="T298" s="12"/>
-      <c r="U298" s="12"/>
-    </row>
-    <row r="299" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="13">
         <v>7653</v>
       </c>
@@ -6392,16 +5484,8 @@
       <c r="K299" s="12"/>
       <c r="L299" s="12"/>
       <c r="M299" s="12"/>
-      <c r="N299" s="12"/>
-      <c r="O299" s="12"/>
-      <c r="P299" s="12"/>
-      <c r="Q299" s="12"/>
-      <c r="R299" s="12"/>
-      <c r="S299" s="12"/>
-      <c r="T299" s="12"/>
-      <c r="U299" s="12"/>
-    </row>
-    <row r="300" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="13">
         <v>7712</v>
       </c>
@@ -6423,16 +5507,8 @@
       <c r="K300" s="12"/>
       <c r="L300" s="12"/>
       <c r="M300" s="12"/>
-      <c r="N300" s="12"/>
-      <c r="O300" s="12"/>
-      <c r="P300" s="12"/>
-      <c r="Q300" s="12"/>
-      <c r="R300" s="12"/>
-      <c r="S300" s="12"/>
-      <c r="T300" s="12"/>
-      <c r="U300" s="12"/>
-    </row>
-    <row r="301" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="301" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="13">
         <v>7734</v>
       </c>
@@ -6454,16 +5530,8 @@
       <c r="K301" s="12"/>
       <c r="L301" s="12"/>
       <c r="M301" s="12"/>
-      <c r="N301" s="12"/>
-      <c r="O301" s="12"/>
-      <c r="P301" s="12"/>
-      <c r="Q301" s="12"/>
-      <c r="R301" s="12"/>
-      <c r="S301" s="12"/>
-      <c r="T301" s="12"/>
-      <c r="U301" s="12"/>
-    </row>
-    <row r="302" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="13">
         <v>7638</v>
       </c>
@@ -6487,16 +5555,8 @@
       <c r="K302" s="12"/>
       <c r="L302" s="12"/>
       <c r="M302" s="12"/>
-      <c r="N302" s="12"/>
-      <c r="O302" s="12"/>
-      <c r="P302" s="12"/>
-      <c r="Q302" s="12"/>
-      <c r="R302" s="12"/>
-      <c r="S302" s="12"/>
-      <c r="T302" s="12"/>
-      <c r="U302" s="12"/>
-    </row>
-    <row r="303" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="13">
         <v>7642</v>
       </c>
@@ -6520,16 +5580,8 @@
       <c r="K303" s="12"/>
       <c r="L303" s="12"/>
       <c r="M303" s="12"/>
-      <c r="N303" s="12"/>
-      <c r="O303" s="12"/>
-      <c r="P303" s="12"/>
-      <c r="Q303" s="12"/>
-      <c r="R303" s="12"/>
-      <c r="S303" s="12"/>
-      <c r="T303" s="12"/>
-      <c r="U303" s="12"/>
-    </row>
-    <row r="304" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="13">
         <v>7731</v>
       </c>
@@ -6551,16 +5603,8 @@
       <c r="K304" s="12"/>
       <c r="L304" s="12"/>
       <c r="M304" s="12"/>
-      <c r="N304" s="12"/>
-      <c r="O304" s="12"/>
-      <c r="P304" s="12"/>
-      <c r="Q304" s="12"/>
-      <c r="R304" s="12"/>
-      <c r="S304" s="12"/>
-      <c r="T304" s="12"/>
-      <c r="U304" s="12"/>
-    </row>
-    <row r="305" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="13">
         <v>7571</v>
       </c>
@@ -6582,16 +5626,8 @@
       <c r="K305" s="12"/>
       <c r="L305" s="12"/>
       <c r="M305" s="12"/>
-      <c r="N305" s="12"/>
-      <c r="O305" s="12"/>
-      <c r="P305" s="12"/>
-      <c r="Q305" s="12"/>
-      <c r="R305" s="12"/>
-      <c r="S305" s="12"/>
-      <c r="T305" s="12"/>
-      <c r="U305" s="12"/>
-    </row>
-    <row r="306" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="306" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="13">
         <v>7695</v>
       </c>
@@ -6613,16 +5649,8 @@
       <c r="K306" s="12"/>
       <c r="L306" s="12"/>
       <c r="M306" s="12"/>
-      <c r="N306" s="12"/>
-      <c r="O306" s="12"/>
-      <c r="P306" s="12"/>
-      <c r="Q306" s="12"/>
-      <c r="R306" s="12"/>
-      <c r="S306" s="12"/>
-      <c r="T306" s="12"/>
-      <c r="U306" s="12"/>
-    </row>
-    <row r="307" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="13">
         <v>7564</v>
       </c>
@@ -6644,16 +5672,8 @@
       <c r="K307" s="12"/>
       <c r="L307" s="12"/>
       <c r="M307" s="12"/>
-      <c r="N307" s="12"/>
-      <c r="O307" s="12"/>
-      <c r="P307" s="12"/>
-      <c r="Q307" s="12"/>
-      <c r="R307" s="12"/>
-      <c r="S307" s="12"/>
-      <c r="T307" s="12"/>
-      <c r="U307" s="12"/>
-    </row>
-    <row r="308" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="308" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="13">
         <v>7523</v>
       </c>
@@ -6675,16 +5695,8 @@
       <c r="K308" s="12"/>
       <c r="L308" s="12"/>
       <c r="M308" s="12"/>
-      <c r="N308" s="12"/>
-      <c r="O308" s="12"/>
-      <c r="P308" s="12"/>
-      <c r="Q308" s="12"/>
-      <c r="R308" s="12"/>
-      <c r="S308" s="12"/>
-      <c r="T308" s="12"/>
-      <c r="U308" s="12"/>
-    </row>
-    <row r="309" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="309" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="13">
         <v>7602</v>
       </c>
@@ -6706,16 +5718,8 @@
       <c r="K309" s="12"/>
       <c r="L309" s="12"/>
       <c r="M309" s="12"/>
-      <c r="N309" s="12"/>
-      <c r="O309" s="12"/>
-      <c r="P309" s="12"/>
-      <c r="Q309" s="12"/>
-      <c r="R309" s="12"/>
-      <c r="S309" s="12"/>
-      <c r="T309" s="12"/>
-      <c r="U309" s="12"/>
-    </row>
-    <row r="310" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="310" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="13">
         <v>7584</v>
       </c>
@@ -6737,16 +5741,8 @@
       <c r="K310" s="12"/>
       <c r="L310" s="12"/>
       <c r="M310" s="12"/>
-      <c r="N310" s="12"/>
-      <c r="O310" s="12"/>
-      <c r="P310" s="12"/>
-      <c r="Q310" s="12"/>
-      <c r="R310" s="12"/>
-      <c r="S310" s="12"/>
-      <c r="T310" s="12"/>
-      <c r="U310" s="12"/>
-    </row>
-    <row r="311" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="311" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="13">
         <v>7520</v>
       </c>
@@ -6768,16 +5764,8 @@
       <c r="K311" s="12"/>
       <c r="L311" s="12"/>
       <c r="M311" s="12"/>
-      <c r="N311" s="12"/>
-      <c r="O311" s="12"/>
-      <c r="P311" s="12"/>
-      <c r="Q311" s="12"/>
-      <c r="R311" s="12"/>
-      <c r="S311" s="12"/>
-      <c r="T311" s="12"/>
-      <c r="U311" s="12"/>
-    </row>
-    <row r="312" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="13">
         <v>7528</v>
       </c>
@@ -6799,16 +5787,8 @@
       <c r="K312" s="12"/>
       <c r="L312" s="12"/>
       <c r="M312" s="12"/>
-      <c r="N312" s="12"/>
-      <c r="O312" s="12"/>
-      <c r="P312" s="12"/>
-      <c r="Q312" s="12"/>
-      <c r="R312" s="12"/>
-      <c r="S312" s="12"/>
-      <c r="T312" s="12"/>
-      <c r="U312" s="12"/>
-    </row>
-    <row r="313" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="313" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="13">
         <v>7611</v>
       </c>
@@ -6830,16 +5810,8 @@
       <c r="K313" s="12"/>
       <c r="L313" s="12"/>
       <c r="M313" s="12"/>
-      <c r="N313" s="12"/>
-      <c r="O313" s="12"/>
-      <c r="P313" s="12"/>
-      <c r="Q313" s="12"/>
-      <c r="R313" s="12"/>
-      <c r="S313" s="12"/>
-      <c r="T313" s="12"/>
-      <c r="U313" s="12"/>
-    </row>
-    <row r="314" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="314" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="13">
         <v>7840</v>
       </c>
@@ -6863,16 +5835,8 @@
       <c r="K314" s="12"/>
       <c r="L314" s="12"/>
       <c r="M314" s="12"/>
-      <c r="N314" s="12"/>
-      <c r="O314" s="12"/>
-      <c r="P314" s="12"/>
-      <c r="Q314" s="12"/>
-      <c r="R314" s="12"/>
-      <c r="S314" s="12"/>
-      <c r="T314" s="12"/>
-      <c r="U314" s="12"/>
-    </row>
-    <row r="315" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="13">
         <v>7823</v>
       </c>
@@ -6896,16 +5860,8 @@
       <c r="K315" s="12"/>
       <c r="L315" s="12"/>
       <c r="M315" s="12"/>
-      <c r="N315" s="12"/>
-      <c r="O315" s="12"/>
-      <c r="P315" s="12"/>
-      <c r="Q315" s="12"/>
-      <c r="R315" s="12"/>
-      <c r="S315" s="12"/>
-      <c r="T315" s="12"/>
-      <c r="U315" s="12"/>
-    </row>
-    <row r="316" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="316" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="13">
         <v>7742</v>
       </c>
@@ -6929,16 +5885,8 @@
       <c r="K316" s="12"/>
       <c r="L316" s="12"/>
       <c r="M316" s="12"/>
-      <c r="N316" s="12"/>
-      <c r="O316" s="12"/>
-      <c r="P316" s="12"/>
-      <c r="Q316" s="12"/>
-      <c r="R316" s="12"/>
-      <c r="S316" s="12"/>
-      <c r="T316" s="12"/>
-      <c r="U316" s="12"/>
-    </row>
-    <row r="317" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="13">
         <v>7630</v>
       </c>
@@ -6960,16 +5908,8 @@
       <c r="K317" s="12"/>
       <c r="L317" s="12"/>
       <c r="M317" s="12"/>
-      <c r="N317" s="12"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="12"/>
-      <c r="Q317" s="12"/>
-      <c r="R317" s="12"/>
-      <c r="S317" s="12"/>
-      <c r="T317" s="12"/>
-      <c r="U317" s="12"/>
-    </row>
-    <row r="318" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="13">
         <v>7637</v>
       </c>
@@ -6991,16 +5931,8 @@
       <c r="K318" s="12"/>
       <c r="L318" s="12"/>
       <c r="M318" s="12"/>
-      <c r="N318" s="12"/>
-      <c r="O318" s="12"/>
-      <c r="P318" s="12"/>
-      <c r="Q318" s="12"/>
-      <c r="R318" s="12"/>
-      <c r="S318" s="12"/>
-      <c r="T318" s="12"/>
-      <c r="U318" s="12"/>
-    </row>
-    <row r="319" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="319" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="13">
         <v>7561</v>
       </c>
@@ -7022,16 +5954,8 @@
       <c r="K319" s="12"/>
       <c r="L319" s="12"/>
       <c r="M319" s="12"/>
-      <c r="N319" s="12"/>
-      <c r="O319" s="12"/>
-      <c r="P319" s="12"/>
-      <c r="Q319" s="12"/>
-      <c r="R319" s="12"/>
-      <c r="S319" s="12"/>
-      <c r="T319" s="12"/>
-      <c r="U319" s="12"/>
-    </row>
-    <row r="320" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="13">
         <v>7563</v>
       </c>
@@ -7055,16 +5979,8 @@
       <c r="K320" s="12"/>
       <c r="L320" s="12"/>
       <c r="M320" s="12"/>
-      <c r="N320" s="12"/>
-      <c r="O320" s="12"/>
-      <c r="P320" s="12"/>
-      <c r="Q320" s="12"/>
-      <c r="R320" s="12"/>
-      <c r="S320" s="12"/>
-      <c r="T320" s="12"/>
-      <c r="U320" s="12"/>
-    </row>
-    <row r="321" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="13">
         <v>7588</v>
       </c>
@@ -7088,16 +6004,8 @@
       <c r="K321" s="12"/>
       <c r="L321" s="12"/>
       <c r="M321" s="12"/>
-      <c r="N321" s="12"/>
-      <c r="O321" s="12"/>
-      <c r="P321" s="12"/>
-      <c r="Q321" s="12"/>
-      <c r="R321" s="12"/>
-      <c r="S321" s="12"/>
-      <c r="T321" s="12"/>
-      <c r="U321" s="12"/>
-    </row>
-    <row r="322" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="322" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="13">
         <v>7647</v>
       </c>
@@ -7119,16 +6027,8 @@
       <c r="K322" s="12"/>
       <c r="L322" s="12"/>
       <c r="M322" s="12"/>
-      <c r="N322" s="12"/>
-      <c r="O322" s="12"/>
-      <c r="P322" s="12"/>
-      <c r="Q322" s="12"/>
-      <c r="R322" s="12"/>
-      <c r="S322" s="12"/>
-      <c r="T322" s="12"/>
-      <c r="U322" s="12"/>
-    </row>
-    <row r="323" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="13">
         <v>7800</v>
       </c>
@@ -7150,16 +6050,8 @@
       <c r="K323" s="12"/>
       <c r="L323" s="12"/>
       <c r="M323" s="12"/>
-      <c r="N323" s="12"/>
-      <c r="O323" s="12"/>
-      <c r="P323" s="12"/>
-      <c r="Q323" s="12"/>
-      <c r="R323" s="12"/>
-      <c r="S323" s="12"/>
-      <c r="T323" s="12"/>
-      <c r="U323" s="12"/>
-    </row>
-    <row r="324" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="13">
         <v>7826</v>
       </c>
@@ -7181,16 +6073,8 @@
       <c r="K324" s="12"/>
       <c r="L324" s="12"/>
       <c r="M324" s="12"/>
-      <c r="N324" s="12"/>
-      <c r="O324" s="12"/>
-      <c r="P324" s="12"/>
-      <c r="Q324" s="12"/>
-      <c r="R324" s="12"/>
-      <c r="S324" s="12"/>
-      <c r="T324" s="12"/>
-      <c r="U324" s="12"/>
-    </row>
-    <row r="325" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="13">
         <v>7787</v>
       </c>
@@ -7212,16 +6096,8 @@
       <c r="K325" s="12"/>
       <c r="L325" s="12"/>
       <c r="M325" s="12"/>
-      <c r="N325" s="12"/>
-      <c r="O325" s="12"/>
-      <c r="P325" s="12"/>
-      <c r="Q325" s="12"/>
-      <c r="R325" s="12"/>
-      <c r="S325" s="12"/>
-      <c r="T325" s="12"/>
-      <c r="U325" s="12"/>
-    </row>
-    <row r="326" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="13">
         <v>7795</v>
       </c>
@@ -7243,16 +6119,8 @@
       <c r="K326" s="12"/>
       <c r="L326" s="12"/>
       <c r="M326" s="12"/>
-      <c r="N326" s="12"/>
-      <c r="O326" s="12"/>
-      <c r="P326" s="12"/>
-      <c r="Q326" s="12"/>
-      <c r="R326" s="12"/>
-      <c r="S326" s="12"/>
-      <c r="T326" s="12"/>
-      <c r="U326" s="12"/>
-    </row>
-    <row r="327" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="13">
         <v>7619</v>
       </c>
@@ -7274,16 +6142,8 @@
       <c r="K327" s="12"/>
       <c r="L327" s="12"/>
       <c r="M327" s="12"/>
-      <c r="N327" s="12"/>
-      <c r="O327" s="12"/>
-      <c r="P327" s="12"/>
-      <c r="Q327" s="12"/>
-      <c r="R327" s="12"/>
-      <c r="S327" s="12"/>
-      <c r="T327" s="12"/>
-      <c r="U327" s="12"/>
-    </row>
-    <row r="328" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="13">
         <v>7524</v>
       </c>
@@ -7305,16 +6165,8 @@
       <c r="K328" s="12"/>
       <c r="L328" s="12"/>
       <c r="M328" s="12"/>
-      <c r="N328" s="12"/>
-      <c r="O328" s="12"/>
-      <c r="P328" s="12"/>
-      <c r="Q328" s="12"/>
-      <c r="R328" s="12"/>
-      <c r="S328" s="12"/>
-      <c r="T328" s="12"/>
-      <c r="U328" s="12"/>
-    </row>
-    <row r="329" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="13">
         <v>7539</v>
       </c>
@@ -7336,16 +6188,8 @@
       <c r="K329" s="12"/>
       <c r="L329" s="12"/>
       <c r="M329" s="12"/>
-      <c r="N329" s="12"/>
-      <c r="O329" s="12"/>
-      <c r="P329" s="12"/>
-      <c r="Q329" s="12"/>
-      <c r="R329" s="12"/>
-      <c r="S329" s="12"/>
-      <c r="T329" s="12"/>
-      <c r="U329" s="12"/>
-    </row>
-    <row r="330" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="13">
         <v>7725</v>
       </c>
@@ -7367,16 +6211,8 @@
       <c r="K330" s="12"/>
       <c r="L330" s="12"/>
       <c r="M330" s="12"/>
-      <c r="N330" s="12"/>
-      <c r="O330" s="12"/>
-      <c r="P330" s="12"/>
-      <c r="Q330" s="12"/>
-      <c r="R330" s="12"/>
-      <c r="S330" s="12"/>
-      <c r="T330" s="12"/>
-      <c r="U330" s="12"/>
-    </row>
-    <row r="331" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="13">
         <v>7555</v>
       </c>
@@ -7398,16 +6234,8 @@
       <c r="K331" s="12"/>
       <c r="L331" s="12"/>
       <c r="M331" s="12"/>
-      <c r="N331" s="12"/>
-      <c r="O331" s="12"/>
-      <c r="P331" s="12"/>
-      <c r="Q331" s="12"/>
-      <c r="R331" s="12"/>
-      <c r="S331" s="12"/>
-      <c r="T331" s="12"/>
-      <c r="U331" s="12"/>
-    </row>
-    <row r="332" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="13">
         <v>7711</v>
       </c>
@@ -7429,16 +6257,8 @@
       <c r="K332" s="12"/>
       <c r="L332" s="12"/>
       <c r="M332" s="12"/>
-      <c r="N332" s="12"/>
-      <c r="O332" s="12"/>
-      <c r="P332" s="12"/>
-      <c r="Q332" s="12"/>
-      <c r="R332" s="12"/>
-      <c r="S332" s="12"/>
-      <c r="T332" s="12"/>
-      <c r="U332" s="12"/>
-    </row>
-    <row r="333" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="13">
         <v>7567</v>
       </c>
@@ -7462,16 +6282,8 @@
       <c r="K333" s="12"/>
       <c r="L333" s="12"/>
       <c r="M333" s="12"/>
-      <c r="N333" s="12"/>
-      <c r="O333" s="12"/>
-      <c r="P333" s="12"/>
-      <c r="Q333" s="12"/>
-      <c r="R333" s="12"/>
-      <c r="S333" s="12"/>
-      <c r="T333" s="12"/>
-      <c r="U333" s="12"/>
-    </row>
-    <row r="334" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="13">
         <v>7842</v>
       </c>
@@ -7493,16 +6305,8 @@
       <c r="K334" s="12"/>
       <c r="L334" s="12"/>
       <c r="M334" s="12"/>
-      <c r="N334" s="12"/>
-      <c r="O334" s="12"/>
-      <c r="P334" s="12"/>
-      <c r="Q334" s="12"/>
-      <c r="R334" s="12"/>
-      <c r="S334" s="12"/>
-      <c r="T334" s="12"/>
-      <c r="U334" s="12"/>
-    </row>
-    <row r="335" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="13">
         <v>7851</v>
       </c>
@@ -7524,16 +6328,8 @@
       <c r="K335" s="12"/>
       <c r="L335" s="12"/>
       <c r="M335" s="12"/>
-      <c r="N335" s="12"/>
-      <c r="O335" s="12"/>
-      <c r="P335" s="12"/>
-      <c r="Q335" s="12"/>
-      <c r="R335" s="12"/>
-      <c r="S335" s="12"/>
-      <c r="T335" s="12"/>
-      <c r="U335" s="12"/>
-    </row>
-    <row r="336" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="336" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="13">
         <v>7822</v>
       </c>
@@ -7555,16 +6351,8 @@
       <c r="K336" s="12"/>
       <c r="L336" s="12"/>
       <c r="M336" s="12"/>
-      <c r="N336" s="12"/>
-      <c r="O336" s="12"/>
-      <c r="P336" s="12"/>
-      <c r="Q336" s="12"/>
-      <c r="R336" s="12"/>
-      <c r="S336" s="12"/>
-      <c r="T336" s="12"/>
-      <c r="U336" s="12"/>
-    </row>
-    <row r="337" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="13">
         <v>7818</v>
       </c>
@@ -7586,16 +6374,8 @@
       <c r="K337" s="12"/>
       <c r="L337" s="12"/>
       <c r="M337" s="12"/>
-      <c r="N337" s="12"/>
-      <c r="O337" s="12"/>
-      <c r="P337" s="12"/>
-      <c r="Q337" s="12"/>
-      <c r="R337" s="12"/>
-      <c r="S337" s="12"/>
-      <c r="T337" s="12"/>
-      <c r="U337" s="12"/>
-    </row>
-    <row r="338" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="13">
         <v>7757</v>
       </c>
@@ -7617,16 +6397,8 @@
       <c r="K338" s="12"/>
       <c r="L338" s="12"/>
       <c r="M338" s="12"/>
-      <c r="N338" s="12"/>
-      <c r="O338" s="12"/>
-      <c r="P338" s="12"/>
-      <c r="Q338" s="12"/>
-      <c r="R338" s="12"/>
-      <c r="S338" s="12"/>
-      <c r="T338" s="12"/>
-      <c r="U338" s="12"/>
-    </row>
-    <row r="339" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="13">
         <v>7857</v>
       </c>
@@ -7648,16 +6420,8 @@
       <c r="K339" s="12"/>
       <c r="L339" s="12"/>
       <c r="M339" s="12"/>
-      <c r="N339" s="12"/>
-      <c r="O339" s="12"/>
-      <c r="P339" s="12"/>
-      <c r="Q339" s="12"/>
-      <c r="R339" s="12"/>
-      <c r="S339" s="12"/>
-      <c r="T339" s="12"/>
-      <c r="U339" s="12"/>
-    </row>
-    <row r="340" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="13">
         <v>7765</v>
       </c>
@@ -7681,16 +6445,8 @@
       <c r="K340" s="12"/>
       <c r="L340" s="12"/>
       <c r="M340" s="12"/>
-      <c r="N340" s="12"/>
-      <c r="O340" s="12"/>
-      <c r="P340" s="12"/>
-      <c r="Q340" s="12"/>
-      <c r="R340" s="12"/>
-      <c r="S340" s="12"/>
-      <c r="T340" s="12"/>
-      <c r="U340" s="12"/>
-    </row>
-    <row r="341" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="341" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="13">
         <v>7836</v>
       </c>
@@ -7712,16 +6468,8 @@
       <c r="K341" s="12"/>
       <c r="L341" s="12"/>
       <c r="M341" s="12"/>
-      <c r="N341" s="12"/>
-      <c r="O341" s="12"/>
-      <c r="P341" s="12"/>
-      <c r="Q341" s="12"/>
-      <c r="R341" s="12"/>
-      <c r="S341" s="12"/>
-      <c r="T341" s="12"/>
-      <c r="U341" s="12"/>
-    </row>
-    <row r="342" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="342" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="13">
         <v>7759</v>
       </c>
@@ -7743,16 +6491,8 @@
       <c r="K342" s="12"/>
       <c r="L342" s="12"/>
       <c r="M342" s="12"/>
-      <c r="N342" s="12"/>
-      <c r="O342" s="12"/>
-      <c r="P342" s="12"/>
-      <c r="Q342" s="12"/>
-      <c r="R342" s="12"/>
-      <c r="S342" s="12"/>
-      <c r="T342" s="12"/>
-      <c r="U342" s="12"/>
-    </row>
-    <row r="343" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="13">
         <v>7794</v>
       </c>
@@ -7774,16 +6514,8 @@
       <c r="K343" s="12"/>
       <c r="L343" s="12"/>
       <c r="M343" s="12"/>
-      <c r="N343" s="12"/>
-      <c r="O343" s="12"/>
-      <c r="P343" s="12"/>
-      <c r="Q343" s="12"/>
-      <c r="R343" s="12"/>
-      <c r="S343" s="12"/>
-      <c r="T343" s="12"/>
-      <c r="U343" s="12"/>
-    </row>
-    <row r="344" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="344" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="13">
         <v>7876</v>
       </c>
@@ -7807,16 +6539,8 @@
       <c r="K344" s="12"/>
       <c r="L344" s="12"/>
       <c r="M344" s="12"/>
-      <c r="N344" s="12"/>
-      <c r="O344" s="12"/>
-      <c r="P344" s="12"/>
-      <c r="Q344" s="12"/>
-      <c r="R344" s="12"/>
-      <c r="S344" s="12"/>
-      <c r="T344" s="12"/>
-      <c r="U344" s="12"/>
-    </row>
-    <row r="345" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="13">
         <v>7805</v>
       </c>
@@ -7838,16 +6562,8 @@
       <c r="K345" s="12"/>
       <c r="L345" s="12"/>
       <c r="M345" s="12"/>
-      <c r="N345" s="12"/>
-      <c r="O345" s="12"/>
-      <c r="P345" s="12"/>
-      <c r="Q345" s="12"/>
-      <c r="R345" s="12"/>
-      <c r="S345" s="12"/>
-      <c r="T345" s="12"/>
-      <c r="U345" s="12"/>
-    </row>
-    <row r="346" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="13">
         <v>7856</v>
       </c>
@@ -7869,16 +6585,8 @@
       <c r="K346" s="12"/>
       <c r="L346" s="12"/>
       <c r="M346" s="12"/>
-      <c r="N346" s="12"/>
-      <c r="O346" s="12"/>
-      <c r="P346" s="12"/>
-      <c r="Q346" s="12"/>
-      <c r="R346" s="12"/>
-      <c r="S346" s="12"/>
-      <c r="T346" s="12"/>
-      <c r="U346" s="12"/>
-    </row>
-    <row r="347" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -7892,16 +6600,8 @@
       <c r="K347" s="12"/>
       <c r="L347" s="12"/>
       <c r="M347" s="12"/>
-      <c r="N347" s="12"/>
-      <c r="O347" s="12"/>
-      <c r="P347" s="12"/>
-      <c r="Q347" s="12"/>
-      <c r="R347" s="12"/>
-      <c r="S347" s="12"/>
-      <c r="T347" s="12"/>
-      <c r="U347" s="12"/>
-    </row>
-    <row r="348" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="13">
         <v>7967</v>
       </c>
@@ -7923,16 +6623,8 @@
       <c r="K348" s="12"/>
       <c r="L348" s="12"/>
       <c r="M348" s="12"/>
-      <c r="N348" s="12"/>
-      <c r="O348" s="12"/>
-      <c r="P348" s="12"/>
-      <c r="Q348" s="12"/>
-      <c r="R348" s="12"/>
-      <c r="S348" s="12"/>
-      <c r="T348" s="12"/>
-      <c r="U348" s="12"/>
-    </row>
-    <row r="349" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -7946,16 +6638,8 @@
       <c r="K349" s="12"/>
       <c r="L349" s="12"/>
       <c r="M349" s="12"/>
-      <c r="N349" s="12"/>
-      <c r="O349" s="12"/>
-      <c r="P349" s="12"/>
-      <c r="Q349" s="12"/>
-      <c r="R349" s="12"/>
-      <c r="S349" s="12"/>
-      <c r="T349" s="12"/>
-      <c r="U349" s="12"/>
-    </row>
-    <row r="350" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="350" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="13">
         <v>7871</v>
       </c>
@@ -7977,16 +6661,8 @@
       <c r="K350" s="12"/>
       <c r="L350" s="12"/>
       <c r="M350" s="12"/>
-      <c r="N350" s="12"/>
-      <c r="O350" s="12"/>
-      <c r="P350" s="12"/>
-      <c r="Q350" s="12"/>
-      <c r="R350" s="12"/>
-      <c r="S350" s="12"/>
-      <c r="T350" s="12"/>
-      <c r="U350" s="12"/>
-    </row>
-    <row r="351" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="351" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -8000,16 +6676,8 @@
       <c r="K351" s="12"/>
       <c r="L351" s="12"/>
       <c r="M351" s="12"/>
-      <c r="N351" s="12"/>
-      <c r="O351" s="12"/>
-      <c r="P351" s="12"/>
-      <c r="Q351" s="12"/>
-      <c r="R351" s="12"/>
-      <c r="S351" s="12"/>
-      <c r="T351" s="12"/>
-      <c r="U351" s="12"/>
-    </row>
-    <row r="352" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="352" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="13">
         <v>7893</v>
       </c>
@@ -8031,16 +6699,8 @@
       <c r="K352" s="12"/>
       <c r="L352" s="12"/>
       <c r="M352" s="12"/>
-      <c r="N352" s="12"/>
-      <c r="O352" s="12"/>
-      <c r="P352" s="12"/>
-      <c r="Q352" s="12"/>
-      <c r="R352" s="12"/>
-      <c r="S352" s="12"/>
-      <c r="T352" s="12"/>
-      <c r="U352" s="12"/>
-    </row>
-    <row r="353" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="13">
         <v>7965</v>
       </c>
@@ -8062,16 +6722,8 @@
       <c r="K353" s="12"/>
       <c r="L353" s="12"/>
       <c r="M353" s="12"/>
-      <c r="N353" s="12"/>
-      <c r="O353" s="12"/>
-      <c r="P353" s="12"/>
-      <c r="Q353" s="12"/>
-      <c r="R353" s="12"/>
-      <c r="S353" s="12"/>
-      <c r="T353" s="12"/>
-      <c r="U353" s="12"/>
-    </row>
-    <row r="354" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="13">
         <v>7975</v>
       </c>
@@ -8093,16 +6745,8 @@
       <c r="K354" s="12"/>
       <c r="L354" s="12"/>
       <c r="M354" s="12"/>
-      <c r="N354" s="12"/>
-      <c r="O354" s="12"/>
-      <c r="P354" s="12"/>
-      <c r="Q354" s="12"/>
-      <c r="R354" s="12"/>
-      <c r="S354" s="12"/>
-      <c r="T354" s="12"/>
-      <c r="U354" s="12"/>
-    </row>
-    <row r="355" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="13">
         <v>7874</v>
       </c>
@@ -8124,16 +6768,8 @@
       <c r="K355" s="12"/>
       <c r="L355" s="12"/>
       <c r="M355" s="12"/>
-      <c r="N355" s="12"/>
-      <c r="O355" s="12"/>
-      <c r="P355" s="12"/>
-      <c r="Q355" s="12"/>
-      <c r="R355" s="12"/>
-      <c r="S355" s="12"/>
-      <c r="T355" s="12"/>
-      <c r="U355" s="12"/>
-    </row>
-    <row r="356" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="356" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="13">
         <v>7939</v>
       </c>
@@ -8155,16 +6791,8 @@
       <c r="K356" s="12"/>
       <c r="L356" s="12"/>
       <c r="M356" s="12"/>
-      <c r="N356" s="12"/>
-      <c r="O356" s="12"/>
-      <c r="P356" s="12"/>
-      <c r="Q356" s="12"/>
-      <c r="R356" s="12"/>
-      <c r="S356" s="12"/>
-      <c r="T356" s="12"/>
-      <c r="U356" s="12"/>
-    </row>
-    <row r="357" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="13">
         <v>7925</v>
       </c>
@@ -8186,16 +6814,8 @@
       <c r="K357" s="12"/>
       <c r="L357" s="12"/>
       <c r="M357" s="12"/>
-      <c r="N357" s="12"/>
-      <c r="O357" s="12"/>
-      <c r="P357" s="12"/>
-      <c r="Q357" s="12"/>
-      <c r="R357" s="12"/>
-      <c r="S357" s="12"/>
-      <c r="T357" s="12"/>
-      <c r="U357" s="12"/>
-    </row>
-    <row r="358" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="358" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="13">
         <v>7914</v>
       </c>
@@ -8217,16 +6837,8 @@
       <c r="K358" s="12"/>
       <c r="L358" s="12"/>
       <c r="M358" s="12"/>
-      <c r="N358" s="12"/>
-      <c r="O358" s="12"/>
-      <c r="P358" s="12"/>
-      <c r="Q358" s="12"/>
-      <c r="R358" s="12"/>
-      <c r="S358" s="12"/>
-      <c r="T358" s="12"/>
-      <c r="U358" s="12"/>
-    </row>
-    <row r="359" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="359" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="13">
         <v>7929</v>
       </c>
@@ -8248,16 +6860,8 @@
       <c r="K359" s="12"/>
       <c r="L359" s="12"/>
       <c r="M359" s="12"/>
-      <c r="N359" s="12"/>
-      <c r="O359" s="12"/>
-      <c r="P359" s="12"/>
-      <c r="Q359" s="12"/>
-      <c r="R359" s="12"/>
-      <c r="S359" s="12"/>
-      <c r="T359" s="12"/>
-      <c r="U359" s="12"/>
-    </row>
-    <row r="360" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="360" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -8271,16 +6875,8 @@
       <c r="K360" s="12"/>
       <c r="L360" s="12"/>
       <c r="M360" s="12"/>
-      <c r="N360" s="12"/>
-      <c r="O360" s="12"/>
-      <c r="P360" s="12"/>
-      <c r="Q360" s="12"/>
-      <c r="R360" s="12"/>
-      <c r="S360" s="12"/>
-      <c r="T360" s="12"/>
-      <c r="U360" s="12"/>
-    </row>
-    <row r="361" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="361" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="13">
         <v>7923</v>
       </c>
@@ -8302,14 +6898,6 @@
       <c r="K361" s="12"/>
       <c r="L361" s="12"/>
       <c r="M361" s="12"/>
-      <c r="N361" s="12"/>
-      <c r="O361" s="12"/>
-      <c r="P361" s="12"/>
-      <c r="Q361" s="12"/>
-      <c r="R361" s="12"/>
-      <c r="S361" s="12"/>
-      <c r="T361" s="12"/>
-      <c r="U361" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10454,7 +9042,7 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
